--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3798.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3798</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Asad Shafiq</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3196</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3197</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3198</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3267</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3274</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1285,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>23/03/2011</t>
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3282</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3484</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3497</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2528,7 +2592,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2580,7 +2644,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2632,7 +2696,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2684,7 +2748,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2736,7 +2800,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2788,7 +2852,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2840,7 +2904,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2892,7 +2956,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2944,7 +3008,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2996,7 +3060,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3048,7 +3112,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3100,7 +3164,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3152,7 +3216,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3204,7 +3268,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3308,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3603,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3625,7 +3688,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3662,7 +3725,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3699,7 +3762,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3725,6 +3788,543 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>0/9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.85%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3531</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3532</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3574</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3575</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3585</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3677</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.74%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3713</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3801</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3802</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3803</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3838</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.46%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3798.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3798.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1285,6 +1284,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>23/03/2011</t>
@@ -3308,6 +3308,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -3794,541 +3795,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3514</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.85%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3531</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3532</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3574</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3575</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3585</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.56%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3677</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3679</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13.49%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3681</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.74%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3713</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3715</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.40%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3717</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.32%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3720</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3801</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3802</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3803</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.41%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3837</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3838</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.46%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3973</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3975</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>